--- a/data/documentation/spreadsheets/done/codecadwallader@codemaid.xlsx
+++ b/data/documentation/spreadsheets/done/codecadwallader@codemaid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\usp\data\documentation\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\usp\data\documentation\spreadsheets\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFF4D45-654D-4B42-B041-2F81ABFA8F9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEBC055-109F-4E23-894C-4804F847A3C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>CF – Contribution flow</t>
   </si>
@@ -551,8 +551,8 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -600,7 +600,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -725,7 +725,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
@@ -753,7 +753,7 @@
       <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="s">
+      <c r="E33" t="s">
         <v>52</v>
       </c>
     </row>
@@ -769,7 +769,7 @@
       <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B35" t="s">
+      <c r="G35" t="s">
         <v>52</v>
       </c>
     </row>
@@ -777,7 +777,7 @@
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>52</v>
       </c>
     </row>
@@ -785,7 +785,7 @@
       <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B37" t="s">
+      <c r="G37" t="s">
         <v>52</v>
       </c>
     </row>
@@ -801,9 +801,6 @@
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
       <c r="G39" t="s">
         <v>52</v>
       </c>
@@ -812,7 +809,7 @@
       <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B40" t="s">
+      <c r="G40" t="s">
         <v>52</v>
       </c>
     </row>
@@ -828,7 +825,7 @@
       <c r="A42" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B42" t="s">
+      <c r="G42" t="s">
         <v>52</v>
       </c>
     </row>
@@ -843,9 +840,6 @@
     <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="B44" t="s">
-        <v>52</v>
       </c>
       <c r="G44" t="s">
         <v>52</v>
